--- a/EntryEditor/bin/Debug/Plug-ins/EditorParticle/PF.xlsx
+++ b/EntryEditor/bin/Debug/Plug-ins/EditorParticle/PF.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,247 +168,259 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>EntryEngine.PSTexClone, EntryEngine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntryEngine.PSPosPoint, EntryEngine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntryEngine.PSPosRectangle, EntryEngine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntryEngine.PSPosCircle, EntryEngine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntryEngine.PSPosAbsolute, EntryEngine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntryEngine.PSSpeed, EntryEngine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntryEngine.PSScale, EntryEngine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntryEngine.PSRotation, EntryEngine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntryEngine.PSColor, EntryEngine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntryEngine.PSSkip, EntryEngine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此流内的子流仅会执行一次；之后，除了根流外，此流前的所有流都将不再执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntryEngine.PSRandomChild, EntryEngine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机子流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子流中随机一个执行，忽略子流的跳过属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntryEngine.PSProbability, EntryEngine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一定概率执行子流，没有子流或概率为0也不会打断流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntryEngine.PSAnd, EntryEngine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntryEngine.PSOr, EntryEngine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>或</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任一子流跳过流则跳过流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任一子流不跳过流则不跳过流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntryEngine.PSInArea, EntryEngine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntryEngine.PSInCircle, EntryEngine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntryEngine.PSSpeedCheck, EntryEngine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩形范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆形范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粒子是否在矩形范围内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粒子是否在圆形范围内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粒子速度是否达标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntryEngine.PSTimer, EntryEngine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntryEngine.PSDie, EntryEngine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即删除粒子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntryEngine.PSLifeAdd, EntryEngine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntryEngine.PSSpeedAdd, EntryEngine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntryEngine.PSDirectionAdd, EntryEngine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命改变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度改变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方向改变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朝向方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粒子生命周期实时变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粒子移动速度实时变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粒子移动方向实时变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计时粒子存在的时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntryEngine.PSColorAdd, EntryEngine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色改变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粒子颜色实时变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntryEngine.PSRotationForward, EntryEngine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转改变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粒子旋转方向实时变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粒子实时朝向移动方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntryEngine.PSRotateAdd, EntryEngine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntryEngine.PSWind, EntryEngine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实时改变粒子坐标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平行风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>EntryEngine.PSTex, EntryEngine</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EntryEngine.PSTexClone, EntryEngine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EntryEngine.PSPosPoint, EntryEngine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EntryEngine.PSPosRectangle, EntryEngine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EntryEngine.PSPosCircle, EntryEngine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EntryEngine.PSPosAbsolute, EntryEngine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EntryEngine.PSSpeed, EntryEngine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EntryEngine.PSScale, EntryEngine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EntryEngine.PSRotation, EntryEngine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EntryEngine.PSColor, EntryEngine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EntryEngine.PSSkip, EntryEngine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>此流内的子流仅会执行一次；之后，除了根流外，此流前的所有流都将不再执行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EntryEngine.PSRandomChild, EntryEngine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机子流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子流中随机一个执行，忽略子流的跳过属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EntryEngine.PSProbability, EntryEngine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>概率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一定概率执行子流，没有子流或概率为0也不会打断流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EntryEngine.PSAnd, EntryEngine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EntryEngine.PSOr, EntryEngine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>或</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任一子流跳过流则跳过流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任一子流不跳过流则不跳过流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EntryEngine.PSInArea, EntryEngine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EntryEngine.PSInCircle, EntryEngine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EntryEngine.PSSpeedCheck, EntryEngine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>矩形范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>圆形范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>粒子是否在矩形范围内</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>粒子是否在圆形范围内</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>粒子速度是否达标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EntryEngine.PSTimer, EntryEngine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EntryEngine.PSDie, EntryEngine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消亡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>立即删除粒子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EntryEngine.PSLifeAdd, EntryEngine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EntryEngine.PSSpeedAdd, EntryEngine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EntryEngine.PSDirectionAdd, EntryEngine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命改变</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度改变</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方向改变</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朝向方向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>粒子生命周期实时变化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>粒子移动速度实时变化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>粒子移动方向实时变化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计时粒子存在的时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EntryEngine.PSColorAdd, EntryEngine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜色改变</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>粒子颜色实时变化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EntryEngine.PSRotationForward, EntryEngine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旋转改变</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>粒子旋转方向实时变化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>粒子实时朝向移动方向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EntryEngine.PSRotateAdd, EntryEngine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EntryEngine.PSWind, EntryEngine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实时改变粒子坐标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平行风</t>
+    <t>EntryEngine.PSFont, EntryEngine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置粒子显示文字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -758,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -828,16 +840,16 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
         <v>48</v>
-      </c>
-      <c r="B7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -856,371 +868,385 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
         <v>32</v>
       </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="D21" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C22">
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C23">
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" t="s">
         <v>58</v>
-      </c>
-      <c r="B24" t="s">
-        <v>60</v>
       </c>
       <c r="C24">
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C25">
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C26">
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C27">
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C28">
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31" t="s">
-        <v>76</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" t="s">
         <v>91</v>
-      </c>
-      <c r="B36" t="s">
-        <v>83</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B37" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B38" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" t="s">
         <v>97</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>